--- a/menu.xlsx
+++ b/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="9645"/>
+    <workbookView windowWidth="21000" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="556">
   <si>
     <t>Category</t>
   </si>
@@ -1220,7 +1220,7 @@
     <t>McFlurry with Reese's Peanut Butter Cups (Snack)</t>
   </si>
   <si>
-    <t>I would</t>
+    <t>I would like</t>
   </si>
   <si>
     <t>order</t>
@@ -1671,6 +1671,18 @@
   </si>
   <si>
     <t>Butter</t>
+  </si>
+  <si>
+    <t>I want to know</t>
+  </si>
+  <si>
+    <t>more info</t>
+  </si>
+  <si>
+    <t>infomation</t>
+  </si>
+  <si>
+    <t>what is the</t>
   </si>
 </sst>
 </file>
@@ -1678,10 +1690,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1707,6 +1719,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1715,11 +1735,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1732,7 +1751,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1748,6 +1782,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1776,21 +1818,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1806,23 +1833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1837,19 +1849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,13 +1903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,13 +1927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,31 +1963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,13 +1987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +2017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1994,30 +2030,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,6 +2082,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2103,21 +2141,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2126,25 +2149,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2159,49 +2171,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2526,8 +2538,8 @@
   <sheetPr/>
   <dimension ref="A1:Y261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="V243" workbookViewId="0">
-      <selection activeCell="AB256" sqref="AB256"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2689,7 +2701,7 @@
       </c>
       <c r="Y2">
         <f ca="1" t="shared" ref="Y2:Y20" si="0">RANDBETWEEN(2,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2767,7 +2779,7 @@
       </c>
       <c r="Y3">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2923,7 +2935,7 @@
       </c>
       <c r="Y5">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -3079,7 +3091,7 @@
       </c>
       <c r="Y7">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -3157,7 +3169,7 @@
       </c>
       <c r="Y8">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -3235,7 +3247,7 @@
       </c>
       <c r="Y9">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -3391,7 +3403,7 @@
       </c>
       <c r="Y11">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -3469,7 +3481,7 @@
       </c>
       <c r="Y12">
         <f ca="1" t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3547,7 +3559,7 @@
       </c>
       <c r="Y13">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3625,7 +3637,7 @@
       </c>
       <c r="Y14">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3703,7 +3715,7 @@
       </c>
       <c r="Y15">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3781,7 +3793,7 @@
       </c>
       <c r="Y16">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3937,7 +3949,7 @@
       </c>
       <c r="Y18">
         <f ca="1" t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -4015,7 +4027,7 @@
       </c>
       <c r="Y19">
         <f ca="1" t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -4093,7 +4105,7 @@
       </c>
       <c r="Y20">
         <f ca="1" t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -4171,7 +4183,7 @@
       </c>
       <c r="Y21">
         <f ca="1" t="shared" ref="Y21:Y41" si="1">RANDBETWEEN(2,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -4249,7 +4261,7 @@
       </c>
       <c r="Y22">
         <f ca="1" t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -4405,7 +4417,7 @@
       </c>
       <c r="Y24">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -4483,7 +4495,7 @@
       </c>
       <c r="Y25">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -4561,7 +4573,7 @@
       </c>
       <c r="Y26">
         <f ca="1" t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -4639,7 +4651,7 @@
       </c>
       <c r="Y27">
         <f ca="1" t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4717,7 +4729,7 @@
       </c>
       <c r="Y28">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4795,7 +4807,7 @@
       </c>
       <c r="Y29">
         <f ca="1" t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4873,7 +4885,7 @@
       </c>
       <c r="Y30">
         <f ca="1" t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -4951,7 +4963,7 @@
       </c>
       <c r="Y31">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -5029,7 +5041,7 @@
       </c>
       <c r="Y32">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -5185,7 +5197,7 @@
       </c>
       <c r="Y34">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -5263,7 +5275,7 @@
       </c>
       <c r="Y35">
         <f ca="1" t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -5341,7 +5353,7 @@
       </c>
       <c r="Y36">
         <f ca="1" t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -5497,7 +5509,7 @@
       </c>
       <c r="Y38">
         <f ca="1" t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -5575,7 +5587,7 @@
       </c>
       <c r="Y39">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -5653,7 +5665,7 @@
       </c>
       <c r="Y40">
         <f ca="1" t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -5731,7 +5743,7 @@
       </c>
       <c r="Y41">
         <f ca="1" t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -5809,7 +5821,7 @@
       </c>
       <c r="Y42">
         <f ca="1" t="shared" ref="Y42:Y57" si="2">RANDBETWEEN(2,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -5887,7 +5899,7 @@
       </c>
       <c r="Y43">
         <f ca="1" t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5965,7 +5977,7 @@
       </c>
       <c r="Y44">
         <f ca="1" t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -6043,7 +6055,7 @@
       </c>
       <c r="Y45">
         <f ca="1" t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -6121,7 +6133,7 @@
       </c>
       <c r="Y46">
         <f ca="1" t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -6277,7 +6289,7 @@
       </c>
       <c r="Y48">
         <f ca="1" t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -6355,7 +6367,7 @@
       </c>
       <c r="Y49">
         <f ca="1" t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -6433,7 +6445,7 @@
       </c>
       <c r="Y50">
         <f ca="1" t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -6511,7 +6523,7 @@
       </c>
       <c r="Y51">
         <f ca="1" t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -6589,7 +6601,7 @@
       </c>
       <c r="Y52">
         <f ca="1" t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -6745,7 +6757,7 @@
       </c>
       <c r="Y54">
         <f ca="1" t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -6823,7 +6835,7 @@
       </c>
       <c r="Y55">
         <f ca="1" t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -6979,7 +6991,7 @@
       </c>
       <c r="Y57">
         <f ca="1" t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -7057,7 +7069,7 @@
       </c>
       <c r="Y58">
         <f ca="1" t="shared" ref="Y58:Y67" si="3">RANDBETWEEN(2,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -7135,7 +7147,7 @@
       </c>
       <c r="Y59">
         <f ca="1" t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -7291,7 +7303,7 @@
       </c>
       <c r="Y61">
         <f ca="1" t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -7369,7 +7381,7 @@
       </c>
       <c r="Y62">
         <f ca="1" t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -7525,7 +7537,7 @@
       </c>
       <c r="Y64">
         <f ca="1" t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -7603,7 +7615,7 @@
       </c>
       <c r="Y65">
         <f ca="1" t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -7759,7 +7771,7 @@
       </c>
       <c r="Y67">
         <f ca="1" t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -7837,7 +7849,7 @@
       </c>
       <c r="Y68">
         <f ca="1" t="shared" ref="Y68:Y77" si="4">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -7915,7 +7927,7 @@
       </c>
       <c r="Y69">
         <f ca="1" t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -7993,7 +8005,7 @@
       </c>
       <c r="Y70">
         <f ca="1" t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -8071,7 +8083,7 @@
       </c>
       <c r="Y71">
         <f ca="1" t="shared" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -8149,7 +8161,7 @@
       </c>
       <c r="Y72">
         <f ca="1" t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -8305,7 +8317,7 @@
       </c>
       <c r="Y74">
         <f ca="1" t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -8383,7 +8395,7 @@
       </c>
       <c r="Y75">
         <f ca="1" t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -8461,7 +8473,7 @@
       </c>
       <c r="Y76">
         <f ca="1" t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -8539,7 +8551,7 @@
       </c>
       <c r="Y77">
         <f ca="1" t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -8617,7 +8629,7 @@
       </c>
       <c r="Y78">
         <f ca="1" t="shared" ref="Y78:Y87" si="5">RANDBETWEEN(2,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -8695,7 +8707,7 @@
       </c>
       <c r="Y79">
         <f ca="1" t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -8773,7 +8785,7 @@
       </c>
       <c r="Y80">
         <f ca="1" t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -8851,7 +8863,7 @@
       </c>
       <c r="Y81">
         <f ca="1" t="shared" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -8929,7 +8941,7 @@
       </c>
       <c r="Y82">
         <f ca="1" t="shared" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -9085,7 +9097,7 @@
       </c>
       <c r="Y84">
         <f ca="1" t="shared" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -9163,7 +9175,7 @@
       </c>
       <c r="Y85">
         <f ca="1" t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -9475,7 +9487,7 @@
       </c>
       <c r="Y89">
         <f ca="1" t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -9553,7 +9565,7 @@
       </c>
       <c r="Y90">
         <f ca="1" t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -9631,7 +9643,7 @@
       </c>
       <c r="Y91">
         <f ca="1" t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -9709,7 +9721,7 @@
       </c>
       <c r="Y92">
         <f ca="1" t="shared" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -9787,7 +9799,7 @@
       </c>
       <c r="Y93">
         <f ca="1" t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -9865,7 +9877,7 @@
       </c>
       <c r="Y94">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -9943,7 +9955,7 @@
       </c>
       <c r="Y95">
         <f ca="1" t="shared" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -10021,7 +10033,7 @@
       </c>
       <c r="Y96">
         <f ca="1" t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -10099,7 +10111,7 @@
       </c>
       <c r="Y97">
         <f ca="1" t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -10177,7 +10189,7 @@
       </c>
       <c r="Y98">
         <f ca="1" t="shared" ref="Y98:Y107" si="7">RANDBETWEEN(2,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -10255,7 +10267,7 @@
       </c>
       <c r="Y99">
         <f ca="1" t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -10333,7 +10345,7 @@
       </c>
       <c r="Y100">
         <f ca="1" t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -10411,7 +10423,7 @@
       </c>
       <c r="Y101">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -10489,7 +10501,7 @@
       </c>
       <c r="Y102">
         <f ca="1" t="shared" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -10567,7 +10579,7 @@
       </c>
       <c r="Y103">
         <f ca="1" t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -10645,7 +10657,7 @@
       </c>
       <c r="Y104">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -10723,7 +10735,7 @@
       </c>
       <c r="Y105">
         <f ca="1" t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -10801,7 +10813,7 @@
       </c>
       <c r="Y106">
         <f ca="1" t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -10957,7 +10969,7 @@
       </c>
       <c r="Y108">
         <f ca="1" t="shared" ref="Y108:Y117" si="8">RANDBETWEEN(2,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -11113,7 +11125,7 @@
       </c>
       <c r="Y110">
         <f ca="1" t="shared" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -11269,7 +11281,7 @@
       </c>
       <c r="Y112">
         <f ca="1" t="shared" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -11347,7 +11359,7 @@
       </c>
       <c r="Y113">
         <f ca="1" t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -11425,7 +11437,7 @@
       </c>
       <c r="Y114">
         <f ca="1" t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -11581,7 +11593,7 @@
       </c>
       <c r="Y116">
         <f ca="1" t="shared" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -11659,7 +11671,7 @@
       </c>
       <c r="Y117">
         <f ca="1" t="shared" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -11737,7 +11749,7 @@
       </c>
       <c r="Y118">
         <f ca="1" t="shared" ref="Y118:Y127" si="9">RANDBETWEEN(2,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -11893,7 +11905,7 @@
       </c>
       <c r="Y120">
         <f ca="1" t="shared" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -11971,7 +11983,7 @@
       </c>
       <c r="Y121">
         <f ca="1" t="shared" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -12049,7 +12061,7 @@
       </c>
       <c r="Y122">
         <f ca="1" t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -12127,7 +12139,7 @@
       </c>
       <c r="Y123">
         <f ca="1" t="shared" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -12205,7 +12217,7 @@
       </c>
       <c r="Y124">
         <f ca="1" t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -12283,7 +12295,7 @@
       </c>
       <c r="Y125">
         <f ca="1" t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -12361,7 +12373,7 @@
       </c>
       <c r="Y126">
         <f ca="1" t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -12439,7 +12451,7 @@
       </c>
       <c r="Y127">
         <f ca="1" t="shared" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -12517,7 +12529,7 @@
       </c>
       <c r="Y128">
         <f ca="1" t="shared" ref="Y128:Y137" si="10">RANDBETWEEN(2,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:25">
@@ -12595,7 +12607,7 @@
       </c>
       <c r="Y129">
         <f ca="1" t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:25">
@@ -12673,7 +12685,7 @@
       </c>
       <c r="Y130">
         <f ca="1" t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -12751,7 +12763,7 @@
       </c>
       <c r="Y131">
         <f ca="1" t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -12829,7 +12841,7 @@
       </c>
       <c r="Y132">
         <f ca="1" t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -12907,7 +12919,7 @@
       </c>
       <c r="Y133">
         <f ca="1" t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -12985,7 +12997,7 @@
       </c>
       <c r="Y134">
         <f ca="1" t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -13063,7 +13075,7 @@
       </c>
       <c r="Y135">
         <f ca="1" t="shared" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:25">
@@ -13141,7 +13153,7 @@
       </c>
       <c r="Y136">
         <f ca="1" t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -13219,7 +13231,7 @@
       </c>
       <c r="Y137">
         <f ca="1" t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -13297,7 +13309,7 @@
       </c>
       <c r="Y138">
         <f ca="1" t="shared" ref="Y138:Y147" si="11">RANDBETWEEN(2,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -13375,7 +13387,7 @@
       </c>
       <c r="Y139">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -13453,7 +13465,7 @@
       </c>
       <c r="Y140">
         <f ca="1" t="shared" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -13609,7 +13621,7 @@
       </c>
       <c r="Y142">
         <f ca="1" t="shared" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -13687,7 +13699,7 @@
       </c>
       <c r="Y143">
         <f ca="1" t="shared" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -13765,7 +13777,7 @@
       </c>
       <c r="Y144">
         <f ca="1" t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -13921,7 +13933,7 @@
       </c>
       <c r="Y146">
         <f ca="1" t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -13999,7 +14011,7 @@
       </c>
       <c r="Y147">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:25">
@@ -14077,7 +14089,7 @@
       </c>
       <c r="Y148">
         <f ca="1" t="shared" ref="Y148:Y157" si="12">RANDBETWEEN(2,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:25">
@@ -14155,7 +14167,7 @@
       </c>
       <c r="Y149">
         <f ca="1" t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -14233,7 +14245,7 @@
       </c>
       <c r="Y150">
         <f ca="1" t="shared" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:25">
@@ -14311,7 +14323,7 @@
       </c>
       <c r="Y151">
         <f ca="1" t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:25">
@@ -14389,7 +14401,7 @@
       </c>
       <c r="Y152">
         <f ca="1" t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:25">
@@ -14467,7 +14479,7 @@
       </c>
       <c r="Y153">
         <f ca="1" t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:25">
@@ -14545,7 +14557,7 @@
       </c>
       <c r="Y154">
         <f ca="1" t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:25">
@@ -14623,7 +14635,7 @@
       </c>
       <c r="Y155">
         <f ca="1" t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:25">
@@ -14857,7 +14869,7 @@
       </c>
       <c r="Y158">
         <f ca="1" t="shared" ref="Y158:Y167" si="13">RANDBETWEEN(2,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -14935,7 +14947,7 @@
       </c>
       <c r="Y159">
         <f ca="1" t="shared" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:25">
@@ -15013,7 +15025,7 @@
       </c>
       <c r="Y160">
         <f ca="1" t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:25">
@@ -15091,7 +15103,7 @@
       </c>
       <c r="Y161">
         <f ca="1" t="shared" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:25">
@@ -15169,7 +15181,7 @@
       </c>
       <c r="Y162">
         <f ca="1" t="shared" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:25">
@@ -15247,7 +15259,7 @@
       </c>
       <c r="Y163">
         <f ca="1" t="shared" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:25">
@@ -15325,7 +15337,7 @@
       </c>
       <c r="Y164">
         <f ca="1" t="shared" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:25">
@@ -15481,7 +15493,7 @@
       </c>
       <c r="Y166">
         <f ca="1" t="shared" si="13"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -15559,7 +15571,7 @@
       </c>
       <c r="Y167">
         <f ca="1" t="shared" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:25">
@@ -15715,7 +15727,7 @@
       </c>
       <c r="Y169">
         <f ca="1" t="shared" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -15793,7 +15805,7 @@
       </c>
       <c r="Y170">
         <f ca="1" t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -15871,7 +15883,7 @@
       </c>
       <c r="Y171">
         <f ca="1" t="shared" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -16027,7 +16039,7 @@
       </c>
       <c r="Y173">
         <f ca="1" t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -16105,7 +16117,7 @@
       </c>
       <c r="Y174">
         <f ca="1" t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -16183,7 +16195,7 @@
       </c>
       <c r="Y175">
         <f ca="1" t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -16261,7 +16273,7 @@
       </c>
       <c r="Y176">
         <f ca="1" t="shared" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -16339,7 +16351,7 @@
       </c>
       <c r="Y177">
         <f ca="1" t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -16417,7 +16429,7 @@
       </c>
       <c r="Y178">
         <f ca="1" t="shared" ref="Y178:Y187" si="15">RANDBETWEEN(2,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -16495,7 +16507,7 @@
       </c>
       <c r="Y179">
         <f ca="1" t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:25">
@@ -16573,7 +16585,7 @@
       </c>
       <c r="Y180">
         <f ca="1" t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -16651,7 +16663,7 @@
       </c>
       <c r="Y181">
         <f ca="1" t="shared" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:25">
@@ -16729,7 +16741,7 @@
       </c>
       <c r="Y182">
         <f ca="1" t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:25">
@@ -16807,7 +16819,7 @@
       </c>
       <c r="Y183">
         <f ca="1" t="shared" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:25">
@@ -16885,7 +16897,7 @@
       </c>
       <c r="Y184">
         <f ca="1" t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:25">
@@ -16963,7 +16975,7 @@
       </c>
       <c r="Y185">
         <f ca="1" t="shared" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:25">
@@ -17041,7 +17053,7 @@
       </c>
       <c r="Y186">
         <f ca="1" t="shared" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -17119,7 +17131,7 @@
       </c>
       <c r="Y187">
         <f ca="1" t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:25">
@@ -17197,7 +17209,7 @@
       </c>
       <c r="Y188">
         <f ca="1" t="shared" ref="Y188:Y197" si="16">RANDBETWEEN(2,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:25">
@@ -17275,7 +17287,7 @@
       </c>
       <c r="Y189">
         <f ca="1" t="shared" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:25">
@@ -17431,7 +17443,7 @@
       </c>
       <c r="Y191">
         <f ca="1" t="shared" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:25">
@@ -17509,7 +17521,7 @@
       </c>
       <c r="Y192">
         <f ca="1" t="shared" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:25">
@@ -17587,7 +17599,7 @@
       </c>
       <c r="Y193">
         <f ca="1" t="shared" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:25">
@@ -17665,7 +17677,7 @@
       </c>
       <c r="Y194">
         <f ca="1" t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:25">
@@ -17743,7 +17755,7 @@
       </c>
       <c r="Y195">
         <f ca="1" t="shared" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:25">
@@ -17977,7 +17989,7 @@
       </c>
       <c r="Y198">
         <f ca="1" t="shared" ref="Y198:Y207" si="17">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:25">
@@ -18055,7 +18067,7 @@
       </c>
       <c r="Y199">
         <f ca="1" t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:25">
@@ -18133,7 +18145,7 @@
       </c>
       <c r="Y200">
         <f ca="1" t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:25">
@@ -18211,7 +18223,7 @@
       </c>
       <c r="Y201">
         <f ca="1" t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:25">
@@ -18289,7 +18301,7 @@
       </c>
       <c r="Y202">
         <f ca="1" t="shared" si="17"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:25">
@@ -18367,7 +18379,7 @@
       </c>
       <c r="Y203">
         <f ca="1" t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:25">
@@ -18445,7 +18457,7 @@
       </c>
       <c r="Y204">
         <f ca="1" t="shared" si="17"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:25">
@@ -18523,7 +18535,7 @@
       </c>
       <c r="Y205">
         <f ca="1" t="shared" si="17"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:25">
@@ -18601,7 +18613,7 @@
       </c>
       <c r="Y206">
         <f ca="1" t="shared" si="17"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:25">
@@ -18835,7 +18847,7 @@
       </c>
       <c r="Y209">
         <f ca="1" t="shared" si="18"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:25">
@@ -18913,7 +18925,7 @@
       </c>
       <c r="Y210">
         <f ca="1" t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:25">
@@ -18991,7 +19003,7 @@
       </c>
       <c r="Y211">
         <f ca="1" t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:25">
@@ -19069,7 +19081,7 @@
       </c>
       <c r="Y212">
         <f ca="1" t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:25">
@@ -19147,7 +19159,7 @@
       </c>
       <c r="Y213">
         <f ca="1" t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:25">
@@ -19225,7 +19237,7 @@
       </c>
       <c r="Y214">
         <f ca="1" t="shared" si="18"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:25">
@@ -19303,7 +19315,7 @@
       </c>
       <c r="Y215">
         <f ca="1" t="shared" si="18"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:25">
@@ -19381,7 +19393,7 @@
       </c>
       <c r="Y216">
         <f ca="1" t="shared" si="18"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:25">
@@ -19459,7 +19471,7 @@
       </c>
       <c r="Y217">
         <f ca="1" t="shared" si="18"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:25">
@@ -19615,7 +19627,7 @@
       </c>
       <c r="Y219">
         <f ca="1" t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:25">
@@ -19849,7 +19861,7 @@
       </c>
       <c r="Y222">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:25">
@@ -19927,7 +19939,7 @@
       </c>
       <c r="Y223">
         <f ca="1" t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:25">
@@ -20005,7 +20017,7 @@
       </c>
       <c r="Y224">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:25">
@@ -20083,7 +20095,7 @@
       </c>
       <c r="Y225">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:25">
@@ -20161,7 +20173,7 @@
       </c>
       <c r="Y226">
         <f ca="1" t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:25">
@@ -20239,7 +20251,7 @@
       </c>
       <c r="Y227">
         <f ca="1" t="shared" si="19"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:25">
@@ -20317,7 +20329,7 @@
       </c>
       <c r="Y228">
         <f ca="1" t="shared" ref="Y228:Y237" si="20">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:25">
@@ -20473,7 +20485,7 @@
       </c>
       <c r="Y230">
         <f ca="1" t="shared" si="20"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:25">
@@ -20551,7 +20563,7 @@
       </c>
       <c r="Y231">
         <f ca="1" t="shared" si="20"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:25">
@@ -20629,7 +20641,7 @@
       </c>
       <c r="Y232">
         <f ca="1" t="shared" si="20"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:25">
@@ -20707,7 +20719,7 @@
       </c>
       <c r="Y233">
         <f ca="1" t="shared" si="20"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:25">
@@ -20785,7 +20797,7 @@
       </c>
       <c r="Y234">
         <f ca="1" t="shared" si="20"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:25">
@@ -20941,7 +20953,7 @@
       </c>
       <c r="Y236">
         <f ca="1" t="shared" si="20"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:25">
@@ -21019,7 +21031,7 @@
       </c>
       <c r="Y237">
         <f ca="1" t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:25">
@@ -21097,7 +21109,7 @@
       </c>
       <c r="Y238">
         <f ca="1" t="shared" ref="Y238:Y247" si="21">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:25">
@@ -21253,7 +21265,7 @@
       </c>
       <c r="Y240">
         <f ca="1" t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:25">
@@ -21331,7 +21343,7 @@
       </c>
       <c r="Y241">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:25">
@@ -21409,7 +21421,7 @@
       </c>
       <c r="Y242">
         <f ca="1" t="shared" si="21"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:25">
@@ -21487,7 +21499,7 @@
       </c>
       <c r="Y243">
         <f ca="1" t="shared" si="21"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:25">
@@ -21643,7 +21655,7 @@
       </c>
       <c r="Y245">
         <f ca="1" t="shared" si="21"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:25">
@@ -21721,7 +21733,7 @@
       </c>
       <c r="Y246">
         <f ca="1" t="shared" si="21"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:25">
@@ -21799,7 +21811,7 @@
       </c>
       <c r="Y247">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:25">
@@ -21877,7 +21889,7 @@
       </c>
       <c r="Y248">
         <f ca="1" t="shared" ref="Y248:Y261" si="22">RANDBETWEEN(2,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:25">
@@ -21955,7 +21967,7 @@
       </c>
       <c r="Y249">
         <f ca="1" t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:25">
@@ -22033,7 +22045,7 @@
       </c>
       <c r="Y250">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:25">
@@ -22111,7 +22123,7 @@
       </c>
       <c r="Y251">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:25">
@@ -22189,7 +22201,7 @@
       </c>
       <c r="Y252">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:25">
@@ -22267,7 +22279,7 @@
       </c>
       <c r="Y253">
         <f ca="1" t="shared" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:25">
@@ -22423,7 +22435,7 @@
       </c>
       <c r="Y255">
         <f ca="1" t="shared" si="22"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:25">
@@ -22501,7 +22513,7 @@
       </c>
       <c r="Y256">
         <f ca="1" t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:25">
@@ -22579,7 +22591,7 @@
       </c>
       <c r="Y257">
         <f ca="1" t="shared" si="22"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:25">
@@ -22657,7 +22669,7 @@
       </c>
       <c r="Y258">
         <f ca="1" t="shared" si="22"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:25">
@@ -22735,7 +22747,7 @@
       </c>
       <c r="Y259">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:25">
@@ -22813,7 +22825,7 @@
       </c>
       <c r="Y260">
         <f ca="1" t="shared" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:25">
@@ -22903,10 +22915,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -27257,6 +27269,30 @@
       </c>
       <c r="F280" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>552</v>
+      </c>
+      <c r="B281" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>554</v>
+      </c>
+      <c r="B282" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
